--- a/biology/Botanique/Chicorée_frisée/Chicorée_frisée.xlsx
+++ b/biology/Botanique/Chicorée_frisée/Chicorée_frisée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_fris%C3%A9e</t>
+          <t>Chicorée_frisée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La frisée, ou chicorée frisée est une salade couramment cultivée. Sur le plan botanique, c'est une variété de la chicorée endive dont il existe de nombreuses variétés. C'est une salade qui se cultive principalement en été et en automne.
 Nom scientifique : Cichorium endivia var. crispum, famille des Asteraceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_fris%C3%A9e</t>
+          <t>Chicorée_frisée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plante à nombreuses feuilles vertes découpées et frisées, disposées en rosette étalée.
 Saveur légèrement amère.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chicor%C3%A9e_fris%C3%A9e</t>
+          <t>Chicorée_frisée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>En 2023, 44 variétés sont inscrites au Catalogue français dont
 Fine de Louviers,
@@ -556,7 +572,7 @@
 Grosse pancalière,
 Très fine maraîchère 3,
 Chicorée frisée wallonne|Wallonne,
-et de nombreuses variétés améliorées plus récentes comme Beauty, Glory, Mistral, Ophely, etc[1].</t>
+et de nombreuses variétés améliorées plus récentes comme Beauty, Glory, Mistral, Ophely, etc.</t>
         </is>
       </c>
     </row>
